--- a/4.xlsx
+++ b/4.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="27792" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,13 +147,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>qu (ksc.)</t>
-  </si>
-  <si>
-    <t>Su(ksc.)</t>
-  </si>
-  <si>
     <t>SC</t>
+  </si>
+  <si>
+    <t>Su (t/sq.m.)</t>
+  </si>
+  <si>
+    <t>Su from Ncor</t>
   </si>
 </sst>
 </file>
@@ -166,7 +161,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0_)"/>
+    <numFmt numFmtId="164" formatCode="0_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -315,7 +310,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -357,8 +352,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_sum-kac" xfId="2"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="ปกติ_42xx-4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,7 +370,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,7 +447,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,10 +659,10 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N23"/>
+      <selection sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1"/>
@@ -711,7 +706,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="28.8">
+    <row r="3" spans="1:15" ht="30">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -746,10 +741,10 @@
         <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>16</v>
@@ -783,7 +778,7 @@
         <v>13.2</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>42</v>
@@ -1292,7 +1287,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>42</v>
@@ -2153,7 +2148,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2165,7 +2160,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4.xlsx
+++ b/4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Depth, m</t>
   </si>
@@ -659,7 +659,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:N3"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,9 +1165,7 @@
       <c r="K16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14">
         <v>57</v>
@@ -1204,9 +1202,7 @@
       <c r="K17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14">
         <v>46</v>
@@ -1289,9 +1285,7 @@
       <c r="K19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14">
         <v>46</v>
@@ -1332,9 +1326,7 @@
       <c r="K20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14">
         <v>50</v>
@@ -1375,9 +1367,7 @@
       <c r="K21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14">
         <v>60</v>
@@ -1418,9 +1408,7 @@
       <c r="K22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14">
         <v>59</v>
@@ -1461,9 +1449,7 @@
       <c r="K23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14">
         <v>60</v>

--- a/4.xlsx
+++ b/4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>Depth, m</t>
   </si>
@@ -659,7 +659,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,9 +780,7 @@
       <c r="K4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="10"/>
@@ -817,9 +815,7 @@
       <c r="K5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="10"/>
@@ -923,9 +919,7 @@
       <c r="K9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="10"/>
@@ -1086,9 +1080,7 @@
       <c r="K14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="11"/>

--- a/4.xlsx
+++ b/4.xlsx
@@ -659,7 +659,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
